--- a/data/Pricing Sheet.xlsx
+++ b/data/Pricing Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITechCare\Cursor\EstimateAI - ELECTRA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22584409-951D-49F4-8393-B844CEB41851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9D5837-947F-40D0-889D-16AEDD17F95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2925,7 +2925,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>Item</t>
   </si>
@@ -3135,6 +3135,9 @@
   </si>
   <si>
     <t>TV Screen, 65"</t>
+  </si>
+  <si>
+    <t>Raised platform, 1*1*0.1, Mental</t>
   </si>
 </sst>
 </file>
@@ -3493,13 +3496,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E03BCC-A81A-4423-8003-959A47FB5A09}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.06640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3537,7 +3540,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -4072,6 +4075,81 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="24da7528-78b4-4aad-85ac-49aaf1ac59c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7b924f21-4409-45e7-b262-a9e005b8f4e9" xsi:nil="true"/>
+    <_dlc_DocId xmlns="7b924f21-4409-45e7-b262-a9e005b8f4e9">VRRUUZSHRZDU-1566248465-174310</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="7b924f21-4409-45e7-b262-a9e005b8f4e9">
+      <Url>https://iecsaudi.sharepoint.com/sites/IECSharepoint2025/_layouts/15/DocIdRedir.aspx?ID=VRRUUZSHRZDU-1566248465-174310</Url>
+      <Description>VRRUUZSHRZDU-1566248465-174310</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E39CB738D405D94F8D534F305062C1AC" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb59bbaa61d2689dff359f28520228fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24da7528-78b4-4aad-85ac-49aaf1ac59c9" xmlns:ns3="7b924f21-4409-45e7-b262-a9e005b8f4e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d9001d95190f1e4f77463734932be5c" ns2:_="" ns3:_="">
     <xsd:import namespace="24da7528-78b4-4aad-85ac-49aaf1ac59c9"/>
@@ -4309,82 +4387,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="24da7528-78b4-4aad-85ac-49aaf1ac59c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7b924f21-4409-45e7-b262-a9e005b8f4e9" xsi:nil="true"/>
-    <_dlc_DocId xmlns="7b924f21-4409-45e7-b262-a9e005b8f4e9">VRRUUZSHRZDU-1566248465-174310</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="7b924f21-4409-45e7-b262-a9e005b8f4e9">
-      <Url>https://iecsaudi.sharepoint.com/sites/IECSharepoint2025/_layouts/15/DocIdRedir.aspx?ID=VRRUUZSHRZDU-1566248465-174310</Url>
-      <Description>VRRUUZSHRZDU-1566248465-174310</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87D16C5-14EF-4FF8-9EB5-23F52C1A6148}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3045E86-D360-4A09-B501-3EA9C1CBE022}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F2E772-08FA-4FF1-B6AF-7E4D0C4265B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="24da7528-78b4-4aad-85ac-49aaf1ac59c9"/>
+    <ds:schemaRef ds:uri="7b924f21-4409-45e7-b262-a9e005b8f4e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DC24528-A58F-4D4C-84C6-A5F03D8312D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4401,31 +4431,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F2E772-08FA-4FF1-B6AF-7E4D0C4265B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="24da7528-78b4-4aad-85ac-49aaf1ac59c9"/>
-    <ds:schemaRef ds:uri="7b924f21-4409-45e7-b262-a9e005b8f4e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3045E86-D360-4A09-B501-3EA9C1CBE022}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87D16C5-14EF-4FF8-9EB5-23F52C1A6148}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>